--- a/Interview_Questions/All_Interview_Questions-3.xlsx
+++ b/Interview_Questions/All_Interview_Questions-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Devops\Devops_Data\Notes\self_notes\Notes_Devops_self\Interview_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A09F9EF-BC04-48EE-A216-E49D51520ABA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E0109D-D82E-4ABC-A737-BC17A2CA4B12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Azure" sheetId="1" r:id="rId1"/>
@@ -3972,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5667,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
